--- a/client/src/Excel/Data/Countries/sd.xlsx
+++ b/client/src/Excel/Data/Countries/sd.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D785098-1CC8-469F-9239-DD89F5CA8300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D021204C-EF15-4C5A-B507-FDE488F0AE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1015,16 +1015,16 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84765625" customWidth="1"/>
+    <col min="4" max="4" width="11.1484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -1148,7 +1148,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1210,7 +1210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1272,7 +1272,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1334,7 +1334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1396,7 +1396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -1458,7 +1458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -1582,7 +1582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10">
         <v>2025</v>
@@ -1641,7 +1641,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="2">
         <v>2025</v>
